--- a/Documentation/Ethical Testing/Task Testing Results.xlsx
+++ b/Documentation/Ethical Testing/Task Testing Results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oliversimpson\Documents\GitHub\CranewareProject\Documentation\Ethical Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\CranewareProject\Documentation\Ethical Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5932414-6242-46CF-9287-EEADE185BC26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="24">
   <si>
     <t>Participant No</t>
   </si>
@@ -47,9 +48,6 @@
     <t>Score</t>
   </si>
   <si>
-    <t>Time approx</t>
-  </si>
-  <si>
     <t>Dummy</t>
   </si>
   <si>
@@ -90,12 +88,21 @@
   </si>
   <si>
     <t>TLX Score</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,11 +414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,16 +429,16 @@
     <col min="4" max="4" width="65.42578125" customWidth="1"/>
     <col min="5" max="5" width="32.5703125" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
-    <col min="8" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +461,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
@@ -474,34 +481,482 @@
       <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>16</v>
+      </c>
+      <c r="M4">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
+      <c r="N6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>14</v>
+      </c>
+      <c r="N7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <v>3.5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13">
+        <v>36.200000000000003</v>
       </c>
     </row>
   </sheetData>
